--- a/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
@@ -461,10 +461,8 @@
           <t>Albania</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(2016,)</t>
-        </is>
+      <c r="B2" t="n">
+        <v>2016</v>
       </c>
       <c r="C2" t="n">
         <v>22</v>
@@ -479,10 +477,8 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>(2016,)</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2016</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -497,10 +493,8 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(2016,)</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2016</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
@@ -515,10 +509,8 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(2016,)</t>
-        </is>
+      <c r="B5" t="n">
+        <v>2016</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -533,10 +525,8 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>(2016,)</t>
-        </is>
+      <c r="B6" t="n">
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
         <v>19</v>
@@ -551,10 +541,8 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>(2016,)</t>
-        </is>
+      <c r="B7" t="n">
+        <v>2016</v>
       </c>
       <c r="C7" t="n">
         <v>22</v>
@@ -569,10 +557,8 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>(2016,)</t>
-        </is>
+      <c r="B8" t="n">
+        <v>2016</v>
       </c>
       <c r="C8" t="n">
         <v>21</v>
@@ -587,10 +573,8 @@
           <t>Turkey</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>(2016,)</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2016</v>
       </c>
       <c r="C9" t="n">
         <v>17</v>
@@ -605,10 +589,8 @@
           <t>Northern Ireland</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>(2016,)</t>
-        </is>
+      <c r="B10" t="n">
+        <v>2016</v>
       </c>
       <c r="C10" t="n">
         <v>16</v>
@@ -623,10 +605,8 @@
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>(2016,)</t>
-        </is>
+      <c r="B11" t="n">
+        <v>2016</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
@@ -641,10 +621,8 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B12" t="n">
+        <v>2021</v>
       </c>
       <c r="C12" t="n">
         <v>38</v>
@@ -659,10 +637,8 @@
           <t>Russia</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B13" t="n">
+        <v>2021</v>
       </c>
       <c r="C13" t="n">
         <v>7</v>
@@ -677,10 +653,8 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B14" t="n">
+        <v>2021</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
@@ -695,10 +669,8 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B15" t="n">
+        <v>2021</v>
       </c>
       <c r="C15" t="n">
         <v>20</v>
@@ -713,10 +685,8 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B16" t="n">
+        <v>2021</v>
       </c>
       <c r="C16" t="n">
         <v>23</v>
@@ -731,10 +701,8 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B17" t="n">
+        <v>2021</v>
       </c>
       <c r="C17" t="n">
         <v>22</v>
@@ -749,10 +717,8 @@
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B18" t="n">
+        <v>2021</v>
       </c>
       <c r="C18" t="n">
         <v>33</v>
@@ -767,10 +733,8 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B19" t="n">
+        <v>2021</v>
       </c>
       <c r="C19" t="n">
         <v>5</v>
@@ -785,10 +749,8 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B20" t="n">
+        <v>2021</v>
       </c>
       <c r="C20" t="n">
         <v>26</v>
@@ -803,10 +765,8 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B21" t="n">
+        <v>2021</v>
       </c>
       <c r="C21" t="n">
         <v>18</v>
@@ -821,10 +781,8 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B22" t="n">
+        <v>2021</v>
       </c>
       <c r="C22" t="n">
         <v>12</v>
@@ -839,10 +797,8 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B23" t="n">
+        <v>2021</v>
       </c>
       <c r="C23" t="n">
         <v>15</v>
@@ -857,10 +813,8 @@
           <t>France</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>(2021,)</t>
-        </is>
+      <c r="B24" t="n">
+        <v>2021</v>
       </c>
       <c r="C24" t="n">
         <v>4</v>
@@ -875,10 +829,8 @@
           <t>Scotland</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B25" t="n">
+        <v>2024</v>
       </c>
       <c r="C25" t="n">
         <v>6</v>
@@ -893,10 +845,8 @@
           <t>Albania</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B26" t="n">
+        <v>2024</v>
       </c>
       <c r="C26" t="n">
         <v>7</v>
@@ -911,10 +861,8 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B27" t="n">
+        <v>2024</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -929,10 +877,8 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B28" t="n">
+        <v>2024</v>
       </c>
       <c r="C28" t="n">
         <v>14</v>
@@ -947,10 +893,8 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B29" t="n">
+        <v>2024</v>
       </c>
       <c r="C29" t="n">
         <v>23</v>
@@ -965,10 +909,8 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B30" t="n">
+        <v>2024</v>
       </c>
       <c r="C30" t="n">
         <v>17</v>
@@ -983,10 +925,8 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B31" t="n">
+        <v>2024</v>
       </c>
       <c r="C31" t="n">
         <v>22</v>
@@ -1001,10 +941,8 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B32" t="n">
+        <v>2024</v>
       </c>
       <c r="C32" t="n">
         <v>18</v>
@@ -1019,10 +957,8 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B33" t="n">
+        <v>2024</v>
       </c>
       <c r="C33" t="n">
         <v>16</v>
@@ -1037,10 +973,8 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B34" t="n">
+        <v>2024</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -1055,10 +989,8 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B35" t="n">
+        <v>2024</v>
       </c>
       <c r="C35" t="n">
         <v>10</v>
@@ -1073,10 +1005,8 @@
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B36" t="n">
+        <v>2024</v>
       </c>
       <c r="C36" t="n">
         <v>6</v>
@@ -1091,10 +1021,8 @@
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B37" t="n">
+        <v>2024</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -1109,10 +1037,8 @@
           <t>Turkey</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>(2024,)</t>
-        </is>
+      <c r="B38" t="n">
+        <v>2024</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>

--- a/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,33 +474,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2016</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2016</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -554,238 +554,238 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>2016</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2016</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2021</v>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2021</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2021</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2021</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2021</v>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2021</v>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2021</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2021</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2021</v>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2021</v>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2021</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -794,256 +794,224 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2024</v>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2024</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2024</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2024</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2024</v>
       </c>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2024</v>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2024</v>
       </c>
       <c r="C31" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D31" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2024</v>
       </c>
       <c r="C32" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2024</v>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2024</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2024</v>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2024</v>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,7 +545,7 @@
         <v>2016</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -586,94 +586,94 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2021</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2021</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2021</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2021</v>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2021</v>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -682,94 +682,94 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2021</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2021</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2021</v>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2021</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2021</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2021</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -778,14 +778,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2021</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -794,94 +794,94 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2024</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2024</v>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2024</v>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2024</v>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2024</v>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -890,110 +890,110 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2024</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2024</v>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2024</v>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2024</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2024</v>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2024</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2024</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1012,6 +1012,22 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
@@ -976,7 +976,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -3, 'goals_scored': 1}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -3, 'goals_scored': 1}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -3, 'goals_scored': 1}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1190,12 +1190,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -3, 'goals_scored': 1}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1482,12 +1482,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1570,12 +1570,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1628,12 +1628,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1862,12 +1862,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{'team': 'Iceland', 'points': 3, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Iceland', 'Northern Ireland', 'Turkey']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1993,27 +1993,27 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>{'team': 'Republic of Ireland', 'points': 2, 'goal_difference': -3, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'team': 'Iceland', 'points': 3, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Iceland', 'Northern Ireland', 'Turkey']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2066,27 +2066,27 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>{'team': 'Republic of Ireland', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'team': 'Iceland', 'points': 3, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Republic of Ireland', 'Iceland', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2139,27 +2139,27 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>{'team': 'Republic of Ireland', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 4}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Republic of Ireland', 'Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2848,12 +2848,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2921,12 +2921,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Denmark', 'Spain']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3359,12 +3359,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3432,12 +3432,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3505,17 +3505,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3578,17 +3578,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3724,17 +3724,17 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3797,17 +3797,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3870,17 +3870,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Spain']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3943,32 +3943,32 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4016,32 +4016,32 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4089,32 +4089,32 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4162,32 +4162,32 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4235,32 +4235,32 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4308,32 +4308,32 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4381,32 +4381,32 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4454,32 +4454,32 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4527,32 +4527,32 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>{'team': 'France', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'France', 'Switzerland', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4600,32 +4600,32 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>{'team': 'France', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'France', 'Switzerland', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4673,32 +4673,32 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 4, 'goal_difference': -2, 'goals_scored': 3}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4746,32 +4746,32 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -5, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 4, 'goal_difference': -2, 'goals_scored': 3}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4819,32 +4819,32 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -5, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 4, 'goal_difference': -2, 'goals_scored': 3}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4892,32 +4892,32 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -5, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'team': 'France', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'France', 'Switzerland', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4965,32 +4965,32 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 3, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 3, 'goal_difference': -5, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'team': 'France', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'France', 'Switzerland', 'Ukraine']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5674,12 +5674,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>{'team': 'Italy', 'points': 3, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Italy']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5747,12 +5747,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>{'team': 'Netherlands', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5893,12 +5893,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5966,12 +5966,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6039,12 +6039,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>{'team': 'Netherlands', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6112,12 +6112,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6185,12 +6185,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6258,12 +6258,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>{'team': 'Netherlands', 'points': 4, 'goal_difference': 0, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6331,12 +6331,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>{'team': 'Netherlands', 'points': 4, 'goal_difference': 0, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6356,12 +6356,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>{'team': 'Georgia', 'points': 4, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6419,22 +6419,22 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>{'team': 'Netherlands', 'points': 4, 'goal_difference': 0, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>{'team': 'Ukraine', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'team': 'Georgia', 'points': 4, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Ukraine', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6477,12 +6477,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6492,22 +6492,22 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>{'team': 'Netherlands', 'points': 4, 'goal_difference': 0, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{'team': 'Georgia', 'points': 4, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6550,12 +6550,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6565,22 +6565,22 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>{'team': 'Netherlands', 'points': 4, 'goal_difference': 0, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{'team': 'Georgia', 'points': 4, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6623,12 +6623,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6638,22 +6638,22 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>{'team': 'Netherlands', 'points': 4, 'goal_difference': 0, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'team': 'Georgia', 'points': 4, 'goal_difference': 0, 'goals_scored': 4}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6711,22 +6711,22 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>{'team': 'Netherlands', 'points': 4, 'goal_difference': 0, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>{'team': 'Turkey', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Turkey', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6769,12 +6769,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 3, 'goal_difference': -3, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -3, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6784,22 +6784,22 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>{'team': 'Netherlands', 'points': 4, 'goal_difference': 0, 'goals_scored': 4}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>{'team': 'Georgia', 'points': 4, 'goal_difference': 0, 'goals_scored': 4}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,12 +501,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>mathematically_excluded</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>mathematically_qualified</t>
+          <t>excluded_teams</t>
         </is>
       </c>
     </row>
@@ -558,12 +553,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -631,12 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -704,12 +689,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -777,12 +757,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -850,12 +825,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -923,12 +893,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -996,12 +961,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1029,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1142,12 +1097,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1215,12 +1165,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1288,12 +1233,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1301,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1369,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1507,12 +1437,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1505,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1573,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1726,12 +1641,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1709,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1777,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -1945,12 +1845,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -2018,12 +1913,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -2091,12 +1981,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -2164,12 +2049,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2101,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Croatia', 'Switzerland']</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2169,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -2367,12 +2237,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -2440,12 +2305,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -2513,12 +2373,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -2586,12 +2441,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2509,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -2732,12 +2577,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -2805,12 +2645,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -2878,12 +2713,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -2951,12 +2781,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3024,12 +2849,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3097,12 +2917,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3170,12 +2985,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3243,12 +3053,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3316,12 +3121,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3189,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3462,12 +3257,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3535,12 +3325,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3608,12 +3393,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3681,12 +3461,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3754,12 +3529,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3827,12 +3597,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3900,12 +3665,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -3973,12 +3733,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4046,12 +3801,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4119,12 +3869,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4192,12 +3937,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4265,12 +4005,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4338,12 +4073,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4141,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4484,12 +4209,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4277,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4630,12 +4345,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4703,12 +4413,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4481,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4849,12 +4549,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4922,12 +4617,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -4995,12 +4685,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
     </row>
@@ -5052,12 +4737,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -5125,12 +4805,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Denmark', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -5198,12 +4873,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -5271,12 +4941,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -5344,12 +5009,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -5417,12 +5077,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -5490,12 +5145,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -5563,12 +5213,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -5636,12 +5281,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -5709,12 +5349,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -5782,12 +5417,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -5855,12 +5485,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -5928,12 +5553,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -6001,12 +5621,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -6074,12 +5689,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -6147,12 +5757,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -6220,12 +5825,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -6293,12 +5893,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -6366,12 +5961,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -6439,12 +6029,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -6512,12 +6097,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -6585,12 +6165,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -6658,12 +6233,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -6731,12 +6301,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>
@@ -6804,12 +6369,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
     </row>

--- a/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="92">
   <si>
     <t>year</t>
   </si>
@@ -58,6 +58,9 @@
     <t>excluded_teams</t>
   </si>
   <si>
+    <t>changes</t>
+  </si>
+  <si>
     <t>Group A</t>
   </si>
   <si>
@@ -199,9 +202,6 @@
     <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
   </si>
   <si>
-    <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
-  </si>
-  <si>
     <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
   </si>
   <si>
@@ -241,15 +241,15 @@
     <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
   </si>
   <si>
+    <t>{'team': 'Belgium', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+  </si>
+  <si>
     <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
   </si>
   <si>
     <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
   </si>
   <si>
-    <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
-  </si>
-  <si>
     <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
   </si>
   <si>
@@ -259,19 +259,22 @@
     <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
   </si>
   <si>
-    <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+    <t>['Portugal', 'Austria', 'Finland', 'Spain']</t>
   </si>
   <si>
     <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
   </si>
   <si>
+    <t>['Austria', 'Belgium', 'Denmark', 'Albania']</t>
+  </si>
+  <si>
+    <t>['Austria', 'Slovakia', 'Albania', 'Czech Republic']</t>
+  </si>
+  <si>
+    <t>['Austria', 'Slovakia', 'Slovenia', 'Albania']</t>
+  </si>
+  <si>
     <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
-  </si>
-  <si>
-    <t>['Austria', 'Slovakia', 'Albania', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Austria', 'Slovakia', 'Slovenia', 'Albania']</t>
   </si>
   <si>
     <t>['Czech Republic', 'Sweden']</t>
@@ -644,13 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -702,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
         <v>64</v>
@@ -717,39 +723,42 @@
         <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
         <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2016</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
         <v>64</v>
@@ -761,39 +770,42 @@
         <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M3" t="s">
         <v>80</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2016</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
         <v>64</v>
@@ -805,39 +817,42 @@
         <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
         <v>80</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
         <v>64</v>
@@ -849,39 +864,42 @@
         <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
         <v>80</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>2016</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
         <v>64</v>
@@ -893,39 +911,42 @@
         <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
         <v>80</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
         <v>64</v>
@@ -937,39 +958,42 @@
         <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
         <v>80</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
         <v>64</v>
@@ -981,39 +1005,42 @@
         <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
         <v>64</v>
@@ -1025,39 +1052,42 @@
         <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>2016</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
         <v>64</v>
@@ -1069,39 +1099,42 @@
         <v>73</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>2016</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
         <v>64</v>
@@ -1113,39 +1146,42 @@
         <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>2016</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
         <v>64</v>
@@ -1157,39 +1193,42 @@
         <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>2016</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
         <v>64</v>
@@ -1201,39 +1240,42 @@
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>2016</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
         <v>64</v>
@@ -1245,39 +1287,42 @@
         <v>73</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>2016</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
         <v>64</v>
@@ -1289,39 +1334,42 @@
         <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
       </c>
       <c r="N15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>2016</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
         <v>64</v>
@@ -1333,39 +1381,42 @@
         <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>2016</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
         <v>64</v>
@@ -1377,39 +1428,42 @@
         <v>73</v>
       </c>
       <c r="L17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>2016</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
         <v>64</v>
@@ -1421,39 +1475,42 @@
         <v>73</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
       </c>
       <c r="N18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>2016</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I19" t="s">
         <v>64</v>
@@ -1465,39 +1522,42 @@
         <v>73</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
       </c>
       <c r="N19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>2016</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" t="s">
         <v>64</v>
@@ -1509,39 +1569,42 @@
         <v>73</v>
       </c>
       <c r="L20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M20" t="s">
         <v>80</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>2016</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
         <v>64</v>
@@ -1553,39 +1616,42 @@
         <v>73</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
       </c>
       <c r="N21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>2016</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I22" t="s">
         <v>64</v>
@@ -1597,39 +1663,42 @@
         <v>73</v>
       </c>
       <c r="L22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>2016</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I23" t="s">
         <v>64</v>
@@ -1641,39 +1710,42 @@
         <v>73</v>
       </c>
       <c r="L23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
       </c>
       <c r="N23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>2016</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I24" t="s">
         <v>64</v>
@@ -1685,16 +1757,19 @@
         <v>73</v>
       </c>
       <c r="L24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
       </c>
       <c r="N24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -1702,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I25" t="s">
         <v>65</v>
@@ -1717,36 +1792,39 @@
         <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
       </c>
       <c r="N25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>88</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>2021</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
         <v>62</v>
@@ -1767,30 +1845,33 @@
         <v>82</v>
       </c>
       <c r="N26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>2021</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s">
         <v>62</v>
@@ -1811,30 +1892,33 @@
         <v>82</v>
       </c>
       <c r="N27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>2021</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H28" t="s">
         <v>62</v>
@@ -1855,30 +1939,33 @@
         <v>82</v>
       </c>
       <c r="N28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>2021</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
         <v>62</v>
@@ -1899,30 +1986,33 @@
         <v>82</v>
       </c>
       <c r="N29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>2021</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
         <v>62</v>
@@ -1943,30 +2033,33 @@
         <v>82</v>
       </c>
       <c r="N30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>2021</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H31" t="s">
         <v>62</v>
@@ -1987,30 +2080,33 @@
         <v>82</v>
       </c>
       <c r="N31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>2021</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H32" t="s">
         <v>62</v>
@@ -2031,30 +2127,33 @@
         <v>82</v>
       </c>
       <c r="N32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>2021</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" t="s">
         <v>62</v>
@@ -2075,30 +2174,33 @@
         <v>82</v>
       </c>
       <c r="N33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>2021</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H34" t="s">
         <v>62</v>
@@ -2119,30 +2221,33 @@
         <v>82</v>
       </c>
       <c r="N34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>2021</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
         <v>62</v>
@@ -2163,30 +2268,33 @@
         <v>82</v>
       </c>
       <c r="N35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>2021</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36">
         <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H36" t="s">
         <v>62</v>
@@ -2207,30 +2315,33 @@
         <v>82</v>
       </c>
       <c r="N36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>2021</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H37" t="s">
         <v>62</v>
@@ -2251,30 +2362,33 @@
         <v>82</v>
       </c>
       <c r="N37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>2021</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38">
         <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H38" t="s">
         <v>62</v>
@@ -2295,30 +2409,33 @@
         <v>82</v>
       </c>
       <c r="N38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>2021</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H39" t="s">
         <v>62</v>
@@ -2339,30 +2456,33 @@
         <v>82</v>
       </c>
       <c r="N39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>2021</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H40" t="s">
         <v>62</v>
@@ -2383,30 +2503,33 @@
         <v>82</v>
       </c>
       <c r="N40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>2021</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41">
         <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H41" t="s">
         <v>62</v>
@@ -2427,30 +2550,33 @@
         <v>82</v>
       </c>
       <c r="N41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>2021</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H42" t="s">
         <v>62</v>
@@ -2471,30 +2597,33 @@
         <v>82</v>
       </c>
       <c r="N42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>2021</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43">
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H43" t="s">
         <v>62</v>
@@ -2515,30 +2644,33 @@
         <v>82</v>
       </c>
       <c r="N43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>2021</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H44" t="s">
         <v>62</v>
@@ -2559,30 +2691,33 @@
         <v>82</v>
       </c>
       <c r="N44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>2021</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H45" t="s">
         <v>62</v>
@@ -2603,30 +2738,33 @@
         <v>82</v>
       </c>
       <c r="N45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>2021</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H46" t="s">
         <v>62</v>
@@ -2647,30 +2785,33 @@
         <v>82</v>
       </c>
       <c r="N46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>2021</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H47" t="s">
         <v>62</v>
@@ -2691,30 +2832,33 @@
         <v>82</v>
       </c>
       <c r="N47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>2021</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48">
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H48" t="s">
         <v>62</v>
@@ -2735,30 +2879,33 @@
         <v>82</v>
       </c>
       <c r="N48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>2021</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C49">
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H49" t="s">
         <v>62</v>
@@ -2779,30 +2926,33 @@
         <v>82</v>
       </c>
       <c r="N49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>2021</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C50">
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H50" t="s">
         <v>62</v>
@@ -2823,30 +2973,33 @@
         <v>82</v>
       </c>
       <c r="N50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>2021</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51">
         <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H51" t="s">
         <v>62</v>
@@ -2867,30 +3020,33 @@
         <v>82</v>
       </c>
       <c r="N51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>2021</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C52">
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H52" t="s">
         <v>62</v>
@@ -2911,30 +3067,33 @@
         <v>82</v>
       </c>
       <c r="N52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>2021</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H53" t="s">
         <v>62</v>
@@ -2955,30 +3114,33 @@
         <v>82</v>
       </c>
       <c r="N53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>2021</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C54">
         <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H54" t="s">
         <v>62</v>
@@ -2999,30 +3161,33 @@
         <v>82</v>
       </c>
       <c r="N54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>2021</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55">
         <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H55" t="s">
         <v>62</v>
@@ -3043,30 +3208,33 @@
         <v>82</v>
       </c>
       <c r="N55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>2021</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C56">
         <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H56" t="s">
         <v>62</v>
@@ -3087,30 +3255,33 @@
         <v>82</v>
       </c>
       <c r="N56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>2021</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57">
         <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H57" t="s">
         <v>62</v>
@@ -3131,30 +3302,33 @@
         <v>82</v>
       </c>
       <c r="N57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>2021</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H58" t="s">
         <v>62</v>
@@ -3175,30 +3349,33 @@
         <v>82</v>
       </c>
       <c r="N58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>2021</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59">
         <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H59" t="s">
         <v>62</v>
@@ -3219,30 +3396,33 @@
         <v>82</v>
       </c>
       <c r="N59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>2021</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C60">
         <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H60" t="s">
         <v>62</v>
@@ -3263,30 +3443,33 @@
         <v>82</v>
       </c>
       <c r="N60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>2021</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C61">
         <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H61" t="s">
         <v>62</v>
@@ -3307,30 +3490,33 @@
         <v>82</v>
       </c>
       <c r="N61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>2021</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C62">
         <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H62" t="s">
         <v>62</v>
@@ -3351,30 +3537,33 @@
         <v>82</v>
       </c>
       <c r="N62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>2021</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63">
         <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H63" t="s">
         <v>62</v>
@@ -3395,10 +3584,13 @@
         <v>82</v>
       </c>
       <c r="N63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>2024</v>
       </c>
@@ -3406,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H64" t="s">
         <v>63</v>
@@ -3427,30 +3619,33 @@
         <v>83</v>
       </c>
       <c r="N64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>2024</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65">
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H65" t="s">
         <v>63</v>
@@ -3462,7 +3657,7 @@
         <v>72</v>
       </c>
       <c r="K65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L65" t="s">
         <v>70</v>
@@ -3471,30 +3666,33 @@
         <v>84</v>
       </c>
       <c r="N65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>91</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>2024</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66">
         <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H66" t="s">
         <v>63</v>
@@ -3506,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="K66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L66" t="s">
         <v>70</v>
@@ -3515,30 +3713,33 @@
         <v>85</v>
       </c>
       <c r="N66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>2024</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H67" t="s">
         <v>63</v>
@@ -3550,39 +3751,42 @@
         <v>72</v>
       </c>
       <c r="K67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L67" t="s">
         <v>70</v>
       </c>
       <c r="M67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>2024</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C68">
         <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H68" t="s">
         <v>63</v>
@@ -3594,39 +3798,42 @@
         <v>72</v>
       </c>
       <c r="K68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L68" t="s">
         <v>70</v>
       </c>
       <c r="M68" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>2024</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69">
         <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H69" t="s">
         <v>63</v>
@@ -3638,39 +3845,42 @@
         <v>72</v>
       </c>
       <c r="K69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L69" t="s">
         <v>70</v>
       </c>
       <c r="M69" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>2024</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C70">
         <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H70" t="s">
         <v>63</v>
@@ -3682,39 +3892,42 @@
         <v>72</v>
       </c>
       <c r="K70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L70" t="s">
         <v>70</v>
       </c>
       <c r="M70" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>2024</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71">
         <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H71" t="s">
         <v>63</v>
@@ -3726,39 +3939,42 @@
         <v>72</v>
       </c>
       <c r="K71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L71" t="s">
         <v>70</v>
       </c>
       <c r="M71" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>2024</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C72">
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H72" t="s">
         <v>63</v>
@@ -3770,39 +3986,42 @@
         <v>72</v>
       </c>
       <c r="K72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L72" t="s">
         <v>70</v>
       </c>
       <c r="M72" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>2024</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C73">
         <v>55</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H73" t="s">
         <v>63</v>
@@ -3814,39 +4033,42 @@
         <v>72</v>
       </c>
       <c r="K73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L73" t="s">
         <v>70</v>
       </c>
       <c r="M73" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>2024</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C74">
         <v>98</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H74" t="s">
         <v>63</v>
@@ -3858,39 +4080,42 @@
         <v>72</v>
       </c>
       <c r="K74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L74" t="s">
         <v>70</v>
       </c>
       <c r="M74" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>2024</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C75">
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H75" t="s">
         <v>63</v>
@@ -3902,39 +4127,42 @@
         <v>72</v>
       </c>
       <c r="K75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L75" t="s">
         <v>70</v>
       </c>
       <c r="M75" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>2024</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C76">
         <v>47</v>
       </c>
       <c r="D76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H76" t="s">
         <v>63</v>
@@ -3946,39 +4174,42 @@
         <v>72</v>
       </c>
       <c r="K76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L76" t="s">
         <v>70</v>
       </c>
       <c r="M76" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>2024</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H77" t="s">
         <v>63</v>
@@ -3990,39 +4221,42 @@
         <v>72</v>
       </c>
       <c r="K77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L77" t="s">
         <v>70</v>
       </c>
       <c r="M77" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>2024</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C78">
         <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H78" t="s">
         <v>63</v>
@@ -4034,39 +4268,42 @@
         <v>72</v>
       </c>
       <c r="K78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L78" t="s">
         <v>70</v>
       </c>
       <c r="M78" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>2024</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C79">
         <v>75</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H79" t="s">
         <v>63</v>
@@ -4078,39 +4315,42 @@
         <v>72</v>
       </c>
       <c r="K79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L79" t="s">
         <v>70</v>
       </c>
       <c r="M79" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>2024</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C80">
         <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H80" t="s">
         <v>63</v>
@@ -4122,39 +4362,42 @@
         <v>72</v>
       </c>
       <c r="K80" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L80" t="s">
         <v>70</v>
       </c>
       <c r="M80" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N80" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>2024</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C81">
         <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H81" t="s">
         <v>63</v>
@@ -4166,39 +4409,42 @@
         <v>72</v>
       </c>
       <c r="K81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L81" t="s">
         <v>70</v>
       </c>
       <c r="M81" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N81" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>2024</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H82" t="s">
         <v>63</v>
@@ -4210,39 +4456,42 @@
         <v>72</v>
       </c>
       <c r="K82" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L82" t="s">
         <v>70</v>
       </c>
       <c r="M82" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>2024</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C83">
         <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H83" t="s">
         <v>63</v>
@@ -4254,39 +4503,42 @@
         <v>72</v>
       </c>
       <c r="K83" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L83" t="s">
         <v>70</v>
       </c>
       <c r="M83" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N83" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>2024</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C84">
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H84" t="s">
         <v>63</v>
@@ -4298,39 +4550,42 @@
         <v>72</v>
       </c>
       <c r="K84" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L84" t="s">
         <v>70</v>
       </c>
       <c r="M84" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>2024</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C85">
         <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H85" t="s">
         <v>63</v>
@@ -4342,39 +4597,42 @@
         <v>72</v>
       </c>
       <c r="K85" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L85" t="s">
         <v>70</v>
       </c>
       <c r="M85" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>2024</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C86">
         <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H86" t="s">
         <v>63</v>
@@ -4386,39 +4644,42 @@
         <v>72</v>
       </c>
       <c r="K86" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L86" t="s">
         <v>70</v>
       </c>
       <c r="M86" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>2024</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C87">
         <v>66</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H87" t="s">
         <v>63</v>
@@ -4430,39 +4691,42 @@
         <v>72</v>
       </c>
       <c r="K87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L87" t="s">
         <v>70</v>
       </c>
       <c r="M87" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>2024</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C88">
         <v>94</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H88" t="s">
         <v>63</v>
@@ -4474,16 +4738,19 @@
         <v>72</v>
       </c>
       <c r="K88" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L88" t="s">
         <v>70</v>
       </c>
       <c r="M88" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N88" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="O88">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
@@ -523,32 +523,32 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'team': 'Romania', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Romania', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -594,32 +594,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -665,32 +665,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -736,32 +736,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -807,32 +807,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -878,32 +878,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -949,32 +949,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1020,32 +1020,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1091,32 +1091,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1162,32 +1162,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1233,32 +1233,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1304,32 +1304,32 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1446,32 +1446,32 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1517,32 +1517,32 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1588,32 +1588,32 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1659,32 +1659,32 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1730,32 +1730,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1801,32 +1801,32 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1872,32 +1872,32 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2014,32 +2014,32 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2085,32 +2085,32 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
+          <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2140,32 +2140,32 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 2, 'goal_difference': -3, 'goals_scored': 1}</t>
+          <t>{'team': 'Switzerland', 'points': 2, 'goals_difference': -3, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2211,32 +2211,32 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -2, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2282,32 +2282,32 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2353,32 +2353,32 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2424,32 +2424,32 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -2, 'goals_scored': 3}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -2, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2495,32 +2495,32 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2566,32 +2566,32 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2637,32 +2637,32 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2708,32 +2708,32 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2779,32 +2779,32 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2921,32 +2921,32 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2992,32 +2992,32 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3063,32 +3063,32 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3134,32 +3134,32 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3205,32 +3205,32 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3276,32 +3276,32 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3347,32 +3347,32 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3418,32 +3418,32 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3489,32 +3489,32 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3560,32 +3560,32 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3631,32 +3631,32 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3702,32 +3702,32 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3773,32 +3773,32 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3844,32 +3844,32 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3915,32 +3915,32 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3986,32 +3986,32 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4057,32 +4057,32 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4128,32 +4128,32 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4199,32 +4199,32 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4270,32 +4270,32 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4341,32 +4341,32 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4412,32 +4412,32 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4483,32 +4483,32 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4554,32 +4554,32 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4625,32 +4625,32 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4696,32 +4696,32 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4767,32 +4767,32 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4838,32 +4838,32 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+          <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4893,32 +4893,32 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>{'team': 'Belgium', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
+          <t>{'team': 'Belgium', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4964,32 +4964,32 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
+          <t>{'team': 'Denmark', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5035,32 +5035,32 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>{'team': 'Slovenia', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
+          <t>{'team': 'Slovenia', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -5106,32 +5106,32 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -5177,32 +5177,32 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5248,32 +5248,32 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -5319,32 +5319,32 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5390,32 +5390,32 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5461,32 +5461,32 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -5532,32 +5532,32 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5603,32 +5603,32 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5674,32 +5674,32 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5745,32 +5745,32 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5816,32 +5816,32 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5887,32 +5887,32 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5958,32 +5958,32 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6029,32 +6029,32 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6100,32 +6100,32 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -6171,32 +6171,32 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6242,32 +6242,32 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6313,32 +6313,32 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6384,32 +6384,32 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -6455,32 +6455,32 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -6526,32 +6526,32 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -6597,32 +6597,32 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="89">
   <si>
     <t>year</t>
   </si>
@@ -67,37 +67,46 @@
     <t>Group B</t>
   </si>
   <si>
+    <t>Group C</t>
+  </si>
+  <si>
     <t>Group D</t>
   </si>
   <si>
-    <t>Group C</t>
+    <t>Group E</t>
   </si>
   <si>
     <t>Group F</t>
   </si>
   <si>
-    <t>Group E</t>
+    <t>Romania</t>
   </si>
   <si>
     <t>Switzerland</t>
   </si>
   <si>
-    <t>Romania</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
     <t>Croatia</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Northern Ireland</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Iceland</t>
@@ -106,12 +115,6 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>North Macedonia</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
@@ -145,46 +145,40 @@
     <t>France</t>
   </si>
   <si>
-    <t>Ukrainw</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
     <t>Wales</t>
   </si>
   <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
     <t>Spain</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Poland</t>
+    <t>Republic of Ireland</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Austria</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Republic of Ireland</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
     <t>Serbia</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>{'team': 'Romania', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
   </si>
   <si>
-    <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
+    <t>{'team': 'Romania', 'points': 1, 'goals_difference': -2, 'goals_scored': 2}</t>
   </si>
   <si>
     <t>{'team': 'Switzerland', 'points': 2, 'goals_difference': -3, 'goals_scored': 1}</t>
@@ -205,7 +199,7 @@
     <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
   </si>
   <si>
-    <t>{'team': 'Hungary', 'points': 3, 'goals_difference': -3, 'goals_scored': 2}</t>
+    <t>{'team': 'Hungary', 'points': 1, 'goals_difference': -4, 'goals_scored': 2}</t>
   </si>
   <si>
     <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
@@ -256,7 +250,7 @@
     <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
   </si>
   <si>
-    <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+    <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Czech Republic']</t>
   </si>
   <si>
     <t>['Portugal', 'Austria', 'Finland', 'Spain']</t>
@@ -271,12 +265,12 @@
     <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
   </si>
   <si>
-    <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
-  </si>
-  <si>
     <t>['Czech Republic', 'Sweden']</t>
   </si>
   <si>
+    <t>['Sweden', 'Romania']</t>
+  </si>
+  <si>
     <t>['Croatia', 'Switzerland']</t>
   </si>
   <si>
@@ -286,7 +280,7 @@
     <t>['Czech Republic', 'Scotland']</t>
   </si>
   <si>
-    <t>['Albania', 'Czech Republic']</t>
+    <t>['Czech Republic', 'Hungary']</t>
   </si>
 </sst>
 </file>
@@ -644,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,28 +699,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
         <v>77</v>
       </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -746,34 +740,31 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
-        <v>79</v>
-      </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -787,43 +778,40 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
         <v>77</v>
       </c>
-      <c r="M4" t="s">
-        <v>80</v>
-      </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -831,43 +819,43 @@
         <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -881,40 +869,37 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -928,40 +913,37 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -972,43 +954,43 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1019,43 +1001,43 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1066,43 +1048,43 @@
         <v>2016</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1116,40 +1098,37 @@
         <v>17</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1160,43 +1139,40 @@
         <v>2016</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1207,43 +1183,40 @@
         <v>2016</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" t="s">
-        <v>67</v>
-      </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1254,43 +1227,43 @@
         <v>2016</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1301,43 +1274,43 @@
         <v>2016</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1348,43 +1321,43 @@
         <v>2016</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1395,43 +1368,43 @@
         <v>2016</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1442,43 +1415,43 @@
         <v>2016</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1489,43 +1462,43 @@
         <v>2016</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1536,43 +1509,43 @@
         <v>2016</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1586,40 +1559,37 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1633,40 +1603,37 @@
         <v>19</v>
       </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" t="s">
-        <v>64</v>
-      </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1680,40 +1647,40 @@
         <v>20</v>
       </c>
       <c r="C23">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
         <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1727,40 +1694,40 @@
         <v>20</v>
       </c>
       <c r="C24">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1771,43 +1738,43 @@
         <v>2016</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -1815,81 +1782,93 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26">
-        <v>2021</v>
+        <v>2016</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
         <v>65</v>
       </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
       <c r="J26" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" t="s">
         <v>71</v>
       </c>
-      <c r="K26" t="s">
-        <v>74</v>
-      </c>
       <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" t="s">
         <v>78</v>
       </c>
-      <c r="M26" t="s">
-        <v>81</v>
-      </c>
       <c r="N26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" t="s">
         <v>65</v>
       </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
       <c r="J27" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" t="s">
         <v>71</v>
       </c>
-      <c r="K27" t="s">
-        <v>74</v>
-      </c>
       <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" t="s">
         <v>78</v>
       </c>
-      <c r="M27" t="s">
-        <v>82</v>
-      </c>
       <c r="N27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1897,46 +1876,46 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" t="s">
         <v>65</v>
       </c>
-      <c r="I28" t="s">
-        <v>68</v>
-      </c>
       <c r="J28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" t="s">
         <v>71</v>
       </c>
-      <c r="K28" t="s">
-        <v>74</v>
-      </c>
       <c r="L28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" t="s">
         <v>78</v>
       </c>
-      <c r="M28" t="s">
-        <v>82</v>
-      </c>
       <c r="N28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -1944,46 +1923,46 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" t="s">
         <v>65</v>
       </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
       <c r="J29" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" t="s">
         <v>71</v>
       </c>
-      <c r="K29" t="s">
-        <v>74</v>
-      </c>
       <c r="L29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" t="s">
         <v>78</v>
       </c>
-      <c r="M29" t="s">
-        <v>82</v>
-      </c>
       <c r="N29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -1991,46 +1970,46 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" t="s">
         <v>65</v>
       </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
       <c r="J30" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" t="s">
         <v>71</v>
       </c>
-      <c r="K30" t="s">
-        <v>74</v>
-      </c>
       <c r="L30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" t="s">
         <v>78</v>
       </c>
-      <c r="M30" t="s">
-        <v>82</v>
-      </c>
       <c r="N30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -2038,46 +2017,46 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C31">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" t="s">
         <v>65</v>
       </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
       <c r="J31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" t="s">
         <v>71</v>
       </c>
-      <c r="K31" t="s">
-        <v>74</v>
-      </c>
       <c r="L31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" t="s">
         <v>78</v>
       </c>
-      <c r="M31" t="s">
-        <v>82</v>
-      </c>
       <c r="N31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2085,46 +2064,46 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" t="s">
         <v>65</v>
       </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
       <c r="J32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" t="s">
         <v>71</v>
       </c>
-      <c r="K32" t="s">
-        <v>74</v>
-      </c>
       <c r="L32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" t="s">
         <v>78</v>
       </c>
-      <c r="M32" t="s">
-        <v>82</v>
-      </c>
       <c r="N32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2132,46 +2111,46 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" t="s">
         <v>65</v>
       </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
       <c r="J33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" t="s">
         <v>71</v>
       </c>
-      <c r="K33" t="s">
-        <v>74</v>
-      </c>
       <c r="L33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" t="s">
         <v>78</v>
       </c>
-      <c r="M33" t="s">
-        <v>82</v>
-      </c>
       <c r="N33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2181,47 +2160,35 @@
       <c r="A34">
         <v>2021</v>
       </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
       <c r="C34">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2229,46 +2196,43 @@
         <v>2021</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2276,43 +2240,43 @@
         <v>2021</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2323,43 +2287,43 @@
         <v>2021</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2370,43 +2334,43 @@
         <v>2021</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -2417,43 +2381,43 @@
         <v>2021</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2464,43 +2428,43 @@
         <v>2021</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -2511,43 +2475,40 @@
         <v>2021</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
         <v>50</v>
       </c>
-      <c r="F41" t="s">
-        <v>50</v>
-      </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -2558,43 +2519,40 @@
         <v>2021</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C42">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -2605,43 +2563,40 @@
         <v>2021</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -2655,40 +2610,40 @@
         <v>17</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -2702,40 +2657,40 @@
         <v>17</v>
       </c>
       <c r="C45">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -2746,43 +2701,43 @@
         <v>2021</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -2796,40 +2751,40 @@
         <v>17</v>
       </c>
       <c r="C47">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -2840,43 +2795,43 @@
         <v>2021</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -2887,43 +2842,43 @@
         <v>2021</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -2934,43 +2889,43 @@
         <v>2021</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -2981,43 +2936,43 @@
         <v>2021</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3028,43 +2983,43 @@
         <v>2021</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C52">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3075,43 +3030,43 @@
         <v>2021</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C53">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3122,43 +3077,43 @@
         <v>2021</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -3169,43 +3124,40 @@
         <v>2021</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" t="s">
         <v>59</v>
       </c>
-      <c r="D55" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>61</v>
-      </c>
       <c r="H55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -3216,43 +3168,43 @@
         <v>2021</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -3263,43 +3215,43 @@
         <v>2021</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C57">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3310,43 +3262,43 @@
         <v>2021</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58">
+        <v>42</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" t="s">
+        <v>63</v>
+      </c>
+      <c r="I58" t="s">
         <v>66</v>
       </c>
-      <c r="D58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" t="s">
-        <v>61</v>
-      </c>
-      <c r="H58" t="s">
-        <v>65</v>
-      </c>
-      <c r="I58" t="s">
-        <v>68</v>
-      </c>
       <c r="J58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -3357,43 +3309,43 @@
         <v>2021</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -3404,43 +3356,43 @@
         <v>2021</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -3451,43 +3403,40 @@
         <v>2021</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -3498,43 +3447,43 @@
         <v>2021</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
         <v>30</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -3545,43 +3494,43 @@
         <v>2021</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3592,43 +3541,43 @@
         <v>2021</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N64" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -3636,81 +3585,93 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65">
-        <v>2024</v>
+        <v>2021</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H65" t="s">
+        <v>63</v>
+      </c>
+      <c r="I65" t="s">
         <v>66</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>69</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>72</v>
       </c>
-      <c r="K65" t="s">
-        <v>75</v>
-      </c>
       <c r="L65" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M65" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C66">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I66" t="s">
         <v>66</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>69</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>72</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>76</v>
       </c>
-      <c r="L66" t="s">
-        <v>70</v>
-      </c>
       <c r="M66" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N66" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -3718,46 +3679,46 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C67">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H67" t="s">
+        <v>63</v>
+      </c>
+      <c r="I67" t="s">
         <v>66</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>69</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>72</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>76</v>
       </c>
-      <c r="L67" t="s">
-        <v>70</v>
-      </c>
       <c r="M67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -3765,566 +3726,554 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C68">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s">
+        <v>59</v>
+      </c>
+      <c r="H68" t="s">
         <v>63</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>66</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>69</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>72</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>76</v>
       </c>
-      <c r="L68" t="s">
-        <v>70</v>
-      </c>
       <c r="M68" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N68" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C69">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
+        <v>59</v>
+      </c>
+      <c r="H69" t="s">
         <v>63</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>66</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>69</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>72</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>76</v>
       </c>
-      <c r="L69" t="s">
-        <v>70</v>
-      </c>
       <c r="M69" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N69" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
+        <v>59</v>
+      </c>
+      <c r="H70" t="s">
         <v>63</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>66</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>69</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>72</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>76</v>
       </c>
-      <c r="L70" t="s">
-        <v>70</v>
-      </c>
       <c r="M70" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N70" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C71">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" t="s">
         <v>63</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>66</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>69</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>72</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>76</v>
       </c>
-      <c r="L71" t="s">
-        <v>70</v>
-      </c>
       <c r="M71" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N71" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E72" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
+        <v>59</v>
+      </c>
+      <c r="H72" t="s">
         <v>63</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>66</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>69</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>72</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>76</v>
       </c>
-      <c r="L72" t="s">
-        <v>70</v>
-      </c>
       <c r="M72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N72" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G73" t="s">
+        <v>59</v>
+      </c>
+      <c r="H73" t="s">
         <v>63</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>66</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>69</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>72</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>76</v>
       </c>
-      <c r="L73" t="s">
-        <v>70</v>
-      </c>
       <c r="M73" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
+        <v>59</v>
+      </c>
+      <c r="H74" t="s">
         <v>63</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>66</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>69</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>72</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>76</v>
       </c>
-      <c r="L74" t="s">
-        <v>70</v>
-      </c>
       <c r="M74" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N74" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C75">
+        <v>71</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
         <v>47</v>
       </c>
-      <c r="D75" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" t="s">
-        <v>49</v>
-      </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G75" t="s">
+        <v>59</v>
+      </c>
+      <c r="H75" t="s">
         <v>63</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>66</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>69</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>72</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>76</v>
       </c>
-      <c r="L75" t="s">
-        <v>70</v>
-      </c>
       <c r="M75" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N75" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C76">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" t="s">
         <v>63</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>66</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>69</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>72</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>76</v>
       </c>
-      <c r="L76" t="s">
-        <v>70</v>
-      </c>
       <c r="M76" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N76" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C77">
+        <v>84</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
         <v>59</v>
       </c>
-      <c r="D77" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" t="s">
-        <v>49</v>
-      </c>
-      <c r="F77" t="s">
-        <v>49</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>63</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>66</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>69</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>72</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>76</v>
       </c>
-      <c r="L77" t="s">
-        <v>70</v>
-      </c>
       <c r="M77" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N77" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" t="s">
         <v>63</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>66</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>69</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>72</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>76</v>
       </c>
-      <c r="L78" t="s">
-        <v>70</v>
-      </c>
       <c r="M78" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N78" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79">
         <v>2024</v>
       </c>
-      <c r="B79" t="s">
-        <v>17</v>
-      </c>
       <c r="C79">
-        <v>79</v>
-      </c>
-      <c r="D79" t="s">
-        <v>42</v>
-      </c>
-      <c r="E79" t="s">
-        <v>48</v>
-      </c>
-      <c r="F79" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H79" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K79" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M79" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N79" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4332,46 +4281,43 @@
         <v>2024</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
-      </c>
-      <c r="F80" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H80" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L80" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N80" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4379,46 +4325,46 @@
         <v>2024</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D81" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E81" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H81" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L81" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M81" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N81" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4426,46 +4372,46 @@
         <v>2024</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L82" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N82" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4473,46 +4419,46 @@
         <v>2024</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C83">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H83" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L83" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4520,46 +4466,43 @@
         <v>2024</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C84">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G84" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K84" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L84" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4567,13 +4510,13 @@
         <v>2024</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C85">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E85" t="s">
         <v>47</v>
@@ -4582,31 +4525,31 @@
         <v>47</v>
       </c>
       <c r="G85" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L85" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M85" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4614,46 +4557,46 @@
         <v>2024</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C86">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D86" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G86" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H86" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I86" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K86" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L86" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M86" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4661,46 +4604,46 @@
         <v>2024</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C87">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H87" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J87" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4708,46 +4651,833 @@
         <v>2024</v>
       </c>
       <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s">
+        <v>61</v>
+      </c>
+      <c r="H88" t="s">
+        <v>64</v>
+      </c>
+      <c r="I88" t="s">
+        <v>67</v>
+      </c>
+      <c r="J88" t="s">
+        <v>70</v>
+      </c>
+      <c r="K88" t="s">
+        <v>74</v>
+      </c>
+      <c r="L88" t="s">
+        <v>68</v>
+      </c>
+      <c r="M88" t="s">
+        <v>82</v>
+      </c>
+      <c r="N88" t="s">
+        <v>88</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89">
+        <v>2024</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" t="s">
+        <v>52</v>
+      </c>
+      <c r="G89" t="s">
+        <v>61</v>
+      </c>
+      <c r="H89" t="s">
+        <v>64</v>
+      </c>
+      <c r="I89" t="s">
+        <v>67</v>
+      </c>
+      <c r="J89" t="s">
+        <v>70</v>
+      </c>
+      <c r="K89" t="s">
+        <v>74</v>
+      </c>
+      <c r="L89" t="s">
+        <v>68</v>
+      </c>
+      <c r="M89" t="s">
+        <v>82</v>
+      </c>
+      <c r="N89" t="s">
+        <v>88</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90">
+        <v>2024</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90" t="s">
+        <v>61</v>
+      </c>
+      <c r="H90" t="s">
+        <v>64</v>
+      </c>
+      <c r="I90" t="s">
+        <v>67</v>
+      </c>
+      <c r="J90" t="s">
+        <v>70</v>
+      </c>
+      <c r="K90" t="s">
+        <v>74</v>
+      </c>
+      <c r="L90" t="s">
+        <v>68</v>
+      </c>
+      <c r="M90" t="s">
+        <v>82</v>
+      </c>
+      <c r="N90" t="s">
+        <v>88</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91">
+        <v>2024</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91">
+        <v>47</v>
+      </c>
+      <c r="D91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" t="s">
+        <v>50</v>
+      </c>
+      <c r="F91" t="s">
+        <v>41</v>
+      </c>
+      <c r="G91" t="s">
+        <v>61</v>
+      </c>
+      <c r="H91" t="s">
+        <v>64</v>
+      </c>
+      <c r="I91" t="s">
+        <v>67</v>
+      </c>
+      <c r="J91" t="s">
+        <v>70</v>
+      </c>
+      <c r="K91" t="s">
+        <v>74</v>
+      </c>
+      <c r="L91" t="s">
+        <v>68</v>
+      </c>
+      <c r="M91" t="s">
+        <v>82</v>
+      </c>
+      <c r="N91" t="s">
+        <v>88</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92">
+        <v>2024</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>56</v>
+      </c>
+      <c r="D92" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" t="s">
+        <v>42</v>
+      </c>
+      <c r="G92" t="s">
+        <v>61</v>
+      </c>
+      <c r="H92" t="s">
+        <v>64</v>
+      </c>
+      <c r="I92" t="s">
+        <v>67</v>
+      </c>
+      <c r="J92" t="s">
+        <v>70</v>
+      </c>
+      <c r="K92" t="s">
+        <v>74</v>
+      </c>
+      <c r="L92" t="s">
+        <v>68</v>
+      </c>
+      <c r="M92" t="s">
+        <v>82</v>
+      </c>
+      <c r="N92" t="s">
+        <v>88</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93">
+        <v>2024</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93">
+        <v>59</v>
+      </c>
+      <c r="D93" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" t="s">
+        <v>50</v>
+      </c>
+      <c r="F93" t="s">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" t="s">
+        <v>64</v>
+      </c>
+      <c r="I93" t="s">
+        <v>67</v>
+      </c>
+      <c r="J93" t="s">
+        <v>70</v>
+      </c>
+      <c r="K93" t="s">
+        <v>74</v>
+      </c>
+      <c r="L93" t="s">
+        <v>68</v>
+      </c>
+      <c r="M93" t="s">
+        <v>82</v>
+      </c>
+      <c r="N93" t="s">
+        <v>88</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94">
+        <v>2024</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94">
+        <v>75</v>
+      </c>
+      <c r="D94" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" t="s">
+        <v>50</v>
+      </c>
+      <c r="F94" t="s">
+        <v>41</v>
+      </c>
+      <c r="G94" t="s">
+        <v>61</v>
+      </c>
+      <c r="H94" t="s">
+        <v>64</v>
+      </c>
+      <c r="I94" t="s">
+        <v>67</v>
+      </c>
+      <c r="J94" t="s">
+        <v>70</v>
+      </c>
+      <c r="K94" t="s">
+        <v>74</v>
+      </c>
+      <c r="L94" t="s">
+        <v>68</v>
+      </c>
+      <c r="M94" t="s">
+        <v>82</v>
+      </c>
+      <c r="N94" t="s">
+        <v>88</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95">
+        <v>2024</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95">
+        <v>79</v>
+      </c>
+      <c r="D95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95" t="s">
+        <v>45</v>
+      </c>
+      <c r="G95" t="s">
+        <v>61</v>
+      </c>
+      <c r="H95" t="s">
+        <v>64</v>
+      </c>
+      <c r="I95" t="s">
+        <v>67</v>
+      </c>
+      <c r="J95" t="s">
+        <v>70</v>
+      </c>
+      <c r="K95" t="s">
+        <v>74</v>
+      </c>
+      <c r="L95" t="s">
+        <v>68</v>
+      </c>
+      <c r="M95" t="s">
+        <v>82</v>
+      </c>
+      <c r="N95" t="s">
+        <v>88</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96">
+        <v>2024</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>80</v>
+      </c>
+      <c r="D96" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" t="s">
+        <v>50</v>
+      </c>
+      <c r="F96" t="s">
+        <v>50</v>
+      </c>
+      <c r="G96" t="s">
+        <v>61</v>
+      </c>
+      <c r="H96" t="s">
+        <v>64</v>
+      </c>
+      <c r="I96" t="s">
+        <v>67</v>
+      </c>
+      <c r="J96" t="s">
+        <v>70</v>
+      </c>
+      <c r="K96" t="s">
+        <v>74</v>
+      </c>
+      <c r="L96" t="s">
+        <v>68</v>
+      </c>
+      <c r="M96" t="s">
+        <v>82</v>
+      </c>
+      <c r="N96" t="s">
+        <v>88</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97">
+        <v>2024</v>
+      </c>
+      <c r="B97" t="s">
         <v>19</v>
       </c>
-      <c r="C88">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>49</v>
+      </c>
+      <c r="G97" t="s">
+        <v>61</v>
+      </c>
+      <c r="H97" t="s">
+        <v>64</v>
+      </c>
+      <c r="I97" t="s">
+        <v>67</v>
+      </c>
+      <c r="J97" t="s">
+        <v>70</v>
+      </c>
+      <c r="K97" t="s">
+        <v>74</v>
+      </c>
+      <c r="L97" t="s">
+        <v>68</v>
+      </c>
+      <c r="M97" t="s">
+        <v>82</v>
+      </c>
+      <c r="N97" t="s">
+        <v>88</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98">
+        <v>2024</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98" t="s">
+        <v>61</v>
+      </c>
+      <c r="H98" t="s">
+        <v>64</v>
+      </c>
+      <c r="I98" t="s">
+        <v>67</v>
+      </c>
+      <c r="J98" t="s">
+        <v>70</v>
+      </c>
+      <c r="K98" t="s">
+        <v>74</v>
+      </c>
+      <c r="L98" t="s">
+        <v>68</v>
+      </c>
+      <c r="M98" t="s">
+        <v>82</v>
+      </c>
+      <c r="N98" t="s">
+        <v>88</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99">
+        <v>2024</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" t="s">
+        <v>43</v>
+      </c>
+      <c r="G99" t="s">
+        <v>61</v>
+      </c>
+      <c r="H99" t="s">
+        <v>64</v>
+      </c>
+      <c r="I99" t="s">
+        <v>67</v>
+      </c>
+      <c r="J99" t="s">
+        <v>70</v>
+      </c>
+      <c r="K99" t="s">
+        <v>74</v>
+      </c>
+      <c r="L99" t="s">
+        <v>68</v>
+      </c>
+      <c r="M99" t="s">
+        <v>82</v>
+      </c>
+      <c r="N99" t="s">
+        <v>88</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100">
+        <v>2024</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s">
+        <v>61</v>
+      </c>
+      <c r="H100" t="s">
+        <v>64</v>
+      </c>
+      <c r="I100" t="s">
+        <v>67</v>
+      </c>
+      <c r="J100" t="s">
+        <v>70</v>
+      </c>
+      <c r="K100" t="s">
+        <v>74</v>
+      </c>
+      <c r="L100" t="s">
+        <v>68</v>
+      </c>
+      <c r="M100" t="s">
+        <v>82</v>
+      </c>
+      <c r="N100" t="s">
+        <v>88</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101">
+        <v>2024</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101">
+        <v>37</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" t="s">
+        <v>64</v>
+      </c>
+      <c r="I101" t="s">
+        <v>67</v>
+      </c>
+      <c r="J101" t="s">
+        <v>70</v>
+      </c>
+      <c r="K101" t="s">
+        <v>74</v>
+      </c>
+      <c r="L101" t="s">
+        <v>68</v>
+      </c>
+      <c r="M101" t="s">
+        <v>82</v>
+      </c>
+      <c r="N101" t="s">
+        <v>88</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102">
+        <v>2024</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>51</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" t="s">
+        <v>46</v>
+      </c>
+      <c r="F102" t="s">
+        <v>46</v>
+      </c>
+      <c r="G102" t="s">
+        <v>61</v>
+      </c>
+      <c r="H102" t="s">
+        <v>64</v>
+      </c>
+      <c r="I102" t="s">
+        <v>67</v>
+      </c>
+      <c r="J102" t="s">
+        <v>70</v>
+      </c>
+      <c r="K102" t="s">
+        <v>74</v>
+      </c>
+      <c r="L102" t="s">
+        <v>68</v>
+      </c>
+      <c r="M102" t="s">
+        <v>82</v>
+      </c>
+      <c r="N102" t="s">
+        <v>88</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103">
+        <v>2024</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103">
+        <v>57</v>
+      </c>
+      <c r="D103" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" t="s">
+        <v>43</v>
+      </c>
+      <c r="G103" t="s">
+        <v>61</v>
+      </c>
+      <c r="H103" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" t="s">
+        <v>67</v>
+      </c>
+      <c r="J103" t="s">
+        <v>70</v>
+      </c>
+      <c r="K103" t="s">
+        <v>74</v>
+      </c>
+      <c r="L103" t="s">
+        <v>68</v>
+      </c>
+      <c r="M103" t="s">
+        <v>82</v>
+      </c>
+      <c r="N103" t="s">
+        <v>88</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104">
+        <v>2024</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104">
+        <v>66</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" t="s">
+        <v>27</v>
+      </c>
+      <c r="G104" t="s">
+        <v>61</v>
+      </c>
+      <c r="H104" t="s">
+        <v>64</v>
+      </c>
+      <c r="I104" t="s">
+        <v>67</v>
+      </c>
+      <c r="J104" t="s">
+        <v>70</v>
+      </c>
+      <c r="K104" t="s">
+        <v>74</v>
+      </c>
+      <c r="L104" t="s">
+        <v>68</v>
+      </c>
+      <c r="M104" t="s">
+        <v>82</v>
+      </c>
+      <c r="N104" t="s">
+        <v>88</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105">
+        <v>2024</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105">
         <v>94</v>
       </c>
-      <c r="D88" t="s">
-        <v>25</v>
-      </c>
-      <c r="E88" t="s">
-        <v>47</v>
-      </c>
-      <c r="F88" t="s">
-        <v>47</v>
-      </c>
-      <c r="G88" t="s">
-        <v>63</v>
-      </c>
-      <c r="H88" t="s">
-        <v>66</v>
-      </c>
-      <c r="I88" t="s">
-        <v>69</v>
-      </c>
-      <c r="J88" t="s">
-        <v>72</v>
-      </c>
-      <c r="K88" t="s">
-        <v>76</v>
-      </c>
-      <c r="L88" t="s">
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" t="s">
+        <v>46</v>
+      </c>
+      <c r="G105" t="s">
+        <v>61</v>
+      </c>
+      <c r="H105" t="s">
+        <v>64</v>
+      </c>
+      <c r="I105" t="s">
+        <v>67</v>
+      </c>
+      <c r="J105" t="s">
         <v>70</v>
       </c>
-      <c r="M88" t="s">
-        <v>85</v>
-      </c>
-      <c r="N88" t="s">
-        <v>90</v>
-      </c>
-      <c r="O88">
-        <v>2</v>
+      <c r="K105" t="s">
+        <v>74</v>
+      </c>
+      <c r="L105" t="s">
+        <v>68</v>
+      </c>
+      <c r="M105" t="s">
+        <v>82</v>
+      </c>
+      <c r="N105" t="s">
+        <v>88</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>changes</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>half_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -564,6 +569,7 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -631,6 +637,9 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -698,6 +707,9 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -769,6 +781,9 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -836,6 +851,9 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -903,6 +921,9 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -974,6 +995,9 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1045,6 +1069,9 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1116,6 +1143,9 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1183,6 +1213,9 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1250,6 +1283,9 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1317,6 +1353,9 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1388,6 +1427,9 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1459,6 +1501,9 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1530,6 +1575,9 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1601,6 +1649,9 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1672,6 +1723,9 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1743,6 +1797,9 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1814,6 +1871,9 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1881,6 +1941,9 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1948,6 +2011,9 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2019,6 +2085,9 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2090,6 +2159,9 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2161,6 +2233,9 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2232,6 +2307,9 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2303,6 +2381,9 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2374,6 +2455,9 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2445,6 +2529,9 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2516,6 +2603,9 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2587,6 +2677,9 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2658,6 +2751,9 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2728,6 +2824,9 @@
       </c>
       <c r="O33" t="n">
         <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2784,6 +2883,7 @@
       <c r="O34" t="n">
         <v>0</v>
       </c>
+      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2851,6 +2951,9 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2922,6 +3025,9 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2993,6 +3099,9 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3064,6 +3173,9 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3135,6 +3247,9 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3206,6 +3321,9 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3273,6 +3391,9 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3340,6 +3461,9 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3407,6 +3531,9 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3478,6 +3605,9 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3549,6 +3679,9 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3620,6 +3753,9 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3691,6 +3827,9 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3762,6 +3901,9 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3833,6 +3975,9 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3904,6 +4049,9 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3975,6 +4123,9 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4046,6 +4197,9 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4117,6 +4271,9 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4188,6 +4345,9 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4255,6 +4415,9 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4326,6 +4489,9 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4397,6 +4563,9 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4468,6 +4637,9 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4539,6 +4711,9 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4610,6 +4785,9 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4677,6 +4855,9 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4748,6 +4929,9 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4819,6 +5003,9 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4890,6 +5077,9 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4961,6 +5151,9 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4972,7 +5165,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5030,6 +5223,9 @@
         </is>
       </c>
       <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5039,25 +5235,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5101,6 +5297,9 @@
         </is>
       </c>
       <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,25 +5309,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5173,6 +5372,9 @@
       </c>
       <c r="O68" t="n">
         <v>1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -5245,6 +5447,9 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5316,6 +5521,9 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5387,6 +5595,9 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5458,6 +5669,9 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5529,6 +5743,9 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5600,6 +5817,9 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5671,6 +5891,9 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5742,6 +5965,9 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5813,6 +6039,9 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5884,6 +6113,9 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5954,6 +6186,9 @@
       </c>
       <c r="O79" t="n">
         <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -6010,6 +6245,7 @@
       <c r="O80" t="n">
         <v>0</v>
       </c>
+      <c r="P80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6077,6 +6313,9 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6148,6 +6387,9 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6219,6 +6461,9 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6290,6 +6535,9 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6357,6 +6605,9 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6428,6 +6679,9 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6499,6 +6753,9 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6570,6 +6827,9 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6637,6 +6897,9 @@
       <c r="O89" t="n">
         <v>1</v>
       </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6704,6 +6967,9 @@
       <c r="O90" t="n">
         <v>1</v>
       </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6775,6 +7041,9 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6846,6 +7115,9 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6917,6 +7189,9 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6988,6 +7263,9 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7059,6 +7337,9 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7130,6 +7411,9 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7201,6 +7485,9 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
+      <c r="P97" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7268,6 +7555,9 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7335,6 +7625,9 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7406,6 +7699,9 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7477,6 +7773,9 @@
       <c r="O101" t="n">
         <v>1</v>
       </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7548,6 +7847,9 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7619,6 +7921,9 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
+      <c r="P103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7690,6 +7995,9 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
+      <c r="P104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7761,6 +8069,9 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7831,6 +8142,9 @@
       </c>
       <c r="O106" t="n">
         <v>1</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
